--- a/helpers/safebytes location.xlsx
+++ b/helpers/safebytes location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\log_analysis\src\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\log_analysis\log_analysis\src\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA019C3-9C4C-4570-8CEA-600CDC42BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79ED6E-17DA-4D9A-B840-5FCA9BB93A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{758947D8-498E-475E-86E2-DD1910D56133}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="28800" windowHeight="15410" xr2:uid="{758947D8-498E-475E-86E2-DD1910D56133}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter location" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>HDV</t>
   </si>
@@ -128,9 +126,6 @@
     <t>3-3</t>
   </si>
   <si>
-    <t>Headers</t>
-  </si>
-  <si>
     <t>HEX-par</t>
   </si>
   <si>
@@ -141,6 +136,15 @@
   </si>
   <si>
     <t>Typ safebytes (ver.-gen.)</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Programmed_date</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
 </sst>
 </file>
@@ -234,16 +238,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AFD2F779-A78A-47DA-A87C-1675EF953105}" name="Table3" displayName="Table3" ref="A2:G12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:G12" xr:uid="{AFD2F779-A78A-47DA-A87C-1675EF953105}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AFD2F779-A78A-47DA-A87C-1675EF953105}" name="Table3" displayName="Table3" ref="A2:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G13" xr:uid="{AFD2F779-A78A-47DA-A87C-1675EF953105}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F210F72B-5B58-44FE-9573-7F7A9BAEE9BE}" name="Param" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5886ED84-B63B-43E9-BB52-867E9225A825}" name="1A-2G" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F0A6DFE0-C904-416B-A16F-D3B9ABF95C38}" name="1B-2G" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9888C9E0-E0B0-4C8F-9E7C-10E1DD415826}" name="2-2G" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{6D31C993-16B4-42D9-87E0-B2D042D5F4AA}" name="1-3G" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{EDED338C-7018-4097-BAF5-9C3C46D14F02}" name="2-3G" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0D841320-B56F-435B-A7F9-DF618FE158FE}" name="3-3G" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F210F72B-5B58-44FE-9573-7F7A9BAEE9BE}" name="Param" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5886ED84-B63B-43E9-BB52-867E9225A825}" name="1A-2G" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F0A6DFE0-C904-416B-A16F-D3B9ABF95C38}" name="1B-2G" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9888C9E0-E0B0-4C8F-9E7C-10E1DD415826}" name="2-2G" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6D31C993-16B4-42D9-87E0-B2D042D5F4AA}" name="1-3G" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EDED338C-7018-4097-BAF5-9C3C46D14F02}" name="2-3G" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0D841320-B56F-435B-A7F9-DF618FE158FE}" name="3-3G" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,21 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF975C78-E0D5-45FB-984D-ADB9B573306C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -568,7 +572,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,211 +618,234 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/safebytes location.xlsx
+++ b/helpers/safebytes location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\log_analysis\log_analysis\src\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79ED6E-17DA-4D9A-B840-5FCA9BB93A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983D2F8-AC68-40B8-AAB3-A9BF341AB970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="28800" windowHeight="15410" xr2:uid="{758947D8-498E-475E-86E2-DD1910D56133}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{758947D8-498E-475E-86E2-DD1910D56133}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter location" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>HDV</t>
   </si>
@@ -123,18 +123,9 @@
     <t>9-10</t>
   </si>
   <si>
-    <t>3-3</t>
-  </si>
-  <si>
     <t>HEX-par</t>
   </si>
   <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
     <t>Typ safebytes (ver.-gen.)</t>
   </si>
   <si>
@@ -145,13 +136,79 @@
   </si>
   <si>
     <t>6-8</t>
+  </si>
+  <si>
+    <t>Hladaný parameter safebytes</t>
+  </si>
+  <si>
+    <t>Dátum programovania</t>
+  </si>
+  <si>
+    <t>ID actor</t>
+  </si>
+  <si>
+    <t>Výrobné číslo modulu</t>
+  </si>
+  <si>
+    <t>Chsum_flash</t>
+  </si>
+  <si>
+    <t>Chsum_EEPROM</t>
+  </si>
+  <si>
+    <t>Označenie ver. safebytes</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>Softvér názov</t>
+  </si>
+  <si>
+    <t>Softvér verzia</t>
+  </si>
+  <si>
+    <t>9 - 11</t>
+  </si>
+  <si>
+    <t>16 - 16</t>
+  </si>
+  <si>
+    <t>14 - 15</t>
+  </si>
+  <si>
+    <t>1 - 1</t>
+  </si>
+  <si>
+    <t>2 - 2</t>
+  </si>
+  <si>
+    <t>6 - 8</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>12 - 15</t>
+  </si>
+  <si>
+    <t>4 - 5</t>
+  </si>
+  <si>
+    <t>3 - 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +222,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003273"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,15 +259,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,21 +710,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF975C78-E0D5-45FB-984D-ADB9B573306C}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D28" sqref="A19:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -623,27 +783,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -652,16 +812,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -678,13 +838,13 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -701,13 +861,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -724,13 +884,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -747,13 +907,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -770,13 +930,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -793,13 +953,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -816,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -830,27 +990,284 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>+E8</f>
+        <v>12 - 15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>+E9</f>
+        <v>16 - 16</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>+E5</f>
+        <v>6 - 8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>+E6</f>
+        <v>4 - 5</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" ref="C25:D25" si="0">+F6</f>
+        <v>4 - 5</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>4 - 5</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>+E7</f>
+        <v>9 - 10</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f t="shared" ref="C26:D26" si="1">+F7</f>
+        <v>9 - 11</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>9 - 11</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>+E12</f>
+        <v>1 - 1</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f t="shared" ref="C27:D27" si="2">+F12</f>
+        <v>1 - 1</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1 - 1</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>+E11</f>
+        <v>3 - 3</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f t="shared" ref="C28:D28" si="3">+F11</f>
+        <v>3 - 3</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>3 - 3</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
